--- a/PF-CODIGO8-GRUPO-01/Diagrama de Gantts Simple.xlsx
+++ b/PF-CODIGO8-GRUPO-01/Diagrama de Gantts Simple.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Crea una Programación de proyecto en esta hoja de cálculo.
 En la celda B1, escribe el título de este proyecto. 
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Todos</t>
+  </si>
+  <si>
+    <t>Casos de Uso</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
     <numFmt numFmtId="170" formatCode="d"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ d/m/yyyy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +502,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1029,7 +1039,7 @@
     <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1259,6 +1269,28 @@
     <xf numFmtId="170" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1271,27 +1303,8 @@
     <xf numFmtId="171" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="34" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1903,8 +1916,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1953,117 +1966,117 @@
       <c r="B3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="84">
+      <c r="D3" s="87"/>
+      <c r="E3" s="92">
         <v>43795</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>43794</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="81">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>43801</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="81">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>43808</v>
       </c>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="81">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>43815</v>
       </c>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="81">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>43822</v>
       </c>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="81">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>43829</v>
       </c>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="83"/>
-      <c r="AY4" s="81">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>43836</v>
       </c>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="81">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
         <v>43843</v>
       </c>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="83"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="I5" s="78">
         <f>Inicio_Proyecto-WEEKDAY(Inicio_Proyecto,1)+2+7*(Mostrar_Semana-1)</f>
         <v>43794</v>
@@ -2293,246 +2306,246 @@
       <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="92" t="str">
+      <c r="I6" s="85" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>l</v>
       </c>
-      <c r="J6" s="92" t="str">
+      <c r="J6" s="85" t="str">
         <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>m</v>
       </c>
-      <c r="K6" s="92" t="str">
+      <c r="K6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="L6" s="92" t="str">
+      <c r="L6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="M6" s="92" t="str">
+      <c r="M6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="N6" s="92" t="str">
+      <c r="N6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="O6" s="92" t="str">
+      <c r="O6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
-      <c r="P6" s="92" t="str">
+      <c r="P6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="Q6" s="92" t="str">
+      <c r="Q6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="R6" s="92" t="str">
+      <c r="R6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="S6" s="92" t="str">
+      <c r="S6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="T6" s="92" t="str">
+      <c r="T6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="U6" s="92" t="str">
+      <c r="U6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="V6" s="92" t="str">
+      <c r="V6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
-      <c r="W6" s="92" t="str">
+      <c r="W6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="X6" s="92" t="str">
+      <c r="X6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="Y6" s="92" t="str">
+      <c r="Y6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="Z6" s="92" t="str">
+      <c r="Z6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="AA6" s="92" t="str">
+      <c r="AA6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="AB6" s="92" t="str">
+      <c r="AB6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="AC6" s="92" t="str">
+      <c r="AC6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
-      <c r="AD6" s="92" t="str">
+      <c r="AD6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="AE6" s="92" t="str">
+      <c r="AE6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="AF6" s="92" t="str">
+      <c r="AF6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="AG6" s="92" t="str">
+      <c r="AG6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="AH6" s="92" t="str">
+      <c r="AH6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="AI6" s="92" t="str">
+      <c r="AI6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="AJ6" s="92" t="str">
+      <c r="AJ6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
-      <c r="AK6" s="92" t="str">
+      <c r="AK6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="AL6" s="92" t="str">
+      <c r="AL6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="AM6" s="92" t="str">
+      <c r="AM6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="AN6" s="92" t="str">
+      <c r="AN6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="AO6" s="92" t="str">
+      <c r="AO6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="AP6" s="92" t="str">
+      <c r="AP6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="AQ6" s="92" t="str">
+      <c r="AQ6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
-      <c r="AR6" s="92" t="str">
+      <c r="AR6" s="85" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="AS6" s="92" t="str">
+      <c r="AS6" s="85" t="str">
         <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>m</v>
       </c>
-      <c r="AT6" s="92" t="str">
+      <c r="AT6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>m</v>
       </c>
-      <c r="AU6" s="92" t="str">
+      <c r="AU6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>j</v>
       </c>
-      <c r="AV6" s="92" t="str">
+      <c r="AV6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>v</v>
       </c>
-      <c r="AW6" s="92" t="str">
+      <c r="AW6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>s</v>
       </c>
-      <c r="AX6" s="92" t="str">
+      <c r="AX6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>d</v>
       </c>
-      <c r="AY6" s="92" t="str">
+      <c r="AY6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>l</v>
       </c>
-      <c r="AZ6" s="92" t="str">
+      <c r="AZ6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>m</v>
       </c>
-      <c r="BA6" s="92" t="str">
+      <c r="BA6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>m</v>
       </c>
-      <c r="BB6" s="92" t="str">
+      <c r="BB6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>j</v>
       </c>
-      <c r="BC6" s="92" t="str">
+      <c r="BC6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>v</v>
       </c>
-      <c r="BD6" s="92" t="str">
+      <c r="BD6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>s</v>
       </c>
-      <c r="BE6" s="92" t="str">
+      <c r="BE6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>d</v>
       </c>
-      <c r="BF6" s="92" t="str">
+      <c r="BF6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>l</v>
       </c>
-      <c r="BG6" s="92" t="str">
+      <c r="BG6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>m</v>
       </c>
-      <c r="BH6" s="92" t="str">
+      <c r="BH6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>m</v>
       </c>
-      <c r="BI6" s="92" t="str">
+      <c r="BI6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>j</v>
       </c>
-      <c r="BJ6" s="92" t="str">
+      <c r="BJ6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>v</v>
       </c>
-      <c r="BK6" s="92" t="str">
+      <c r="BK6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>s</v>
       </c>
-      <c r="BL6" s="92" t="str">
+      <c r="BL6" s="85" t="str">
         <f t="shared" si="5"/>
         <v>d</v>
       </c>
@@ -2681,10 +2694,10 @@
       <c r="A9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="82" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="14">
@@ -2695,13 +2708,13 @@
         <v>43795</v>
       </c>
       <c r="F9" s="64">
-        <f>E9+1</f>
-        <v>43796</v>
+        <f>E9+9</f>
+        <v>43804</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
@@ -2764,7 +2777,7 @@
       <c r="A10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="81" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="48" t="str">
@@ -2775,12 +2788,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="64">
-        <f>F9</f>
-        <v>43796</v>
+        <v>43802</v>
       </c>
       <c r="F10" s="64">
         <f>E10+2</f>
-        <v>43798</v>
+        <v>43804</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -2846,7 +2858,7 @@
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="81" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="48" t="str">
@@ -2922,17 +2934,26 @@
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
-      <c r="B12" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="64">
+        <v>43802</v>
+      </c>
+      <c r="F12" s="64">
+        <f>E12+2</f>
+        <v>43804</v>
+      </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="11">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
@@ -2997,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="48"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
       <c r="G13" s="11"/>
@@ -4544,11 +4565,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4556,6 +4572,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
